--- a/files/samples/CLASS 1-4 SA-2.xlsx
+++ b/files/samples/CLASS 1-4 SA-2.xlsx
@@ -693,7 +693,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,8 +891,8 @@
         <v>55</v>
       </c>
       <c r="H8" s="15">
-        <f>C8+D8+E8+F8+F8+G8</f>
-        <v>340</v>
+        <f>SUMIF(C8:G8,"&lt;&gt;#AB")</f>
+        <v>285</v>
       </c>
       <c r="I8" s="21">
         <v>100</v>
@@ -932,7 +932,7 @@
         <v>55</v>
       </c>
       <c r="H9" s="15">
-        <f t="shared" ref="H9:H10" si="0">C9+D9+E9+F9+G9</f>
+        <f t="shared" ref="H9:H56" si="0">SUMIF(C9:G9,"&lt;&gt;#AB")</f>
         <v>315</v>
       </c>
       <c r="I9" s="13">
@@ -970,11 +970,11 @@
         <v>55</v>
       </c>
       <c r="G10" s="5">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H10" s="15">
         <f t="shared" si="0"/>
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I10" s="13">
         <v>115</v>
@@ -1000,7 +1000,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="5"/>
       <c r="H11" s="15">
-        <f t="shared" ref="H8:H56" si="1">C11+D11+E11+F11+G11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I11" s="13"/>
@@ -1023,7 +1023,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="5"/>
       <c r="H12" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I12" s="13"/>
@@ -1046,7 +1046,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="5"/>
       <c r="H13" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I13" s="13"/>
@@ -1069,7 +1069,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="5"/>
       <c r="H14" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="13"/>
@@ -1092,7 +1092,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="5"/>
       <c r="H15" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I15" s="13"/>
@@ -1115,7 +1115,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="5"/>
       <c r="H16" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I16" s="13"/>
@@ -1138,7 +1138,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="5"/>
       <c r="H17" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I17" s="13"/>
@@ -1161,7 +1161,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="5"/>
       <c r="H18" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I18" s="13"/>
@@ -1184,7 +1184,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="5"/>
       <c r="H19" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I19" s="13"/>
@@ -1207,7 +1207,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="5"/>
       <c r="H20" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I20" s="13"/>
@@ -1230,7 +1230,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="5"/>
       <c r="H21" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I21" s="13"/>
@@ -1253,7 +1253,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="5"/>
       <c r="H22" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I22" s="13"/>
@@ -1276,7 +1276,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="10"/>
       <c r="H23" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I23" s="13"/>
@@ -1299,7 +1299,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="5"/>
       <c r="H24" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I24" s="13"/>
@@ -1322,7 +1322,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="12"/>
       <c r="H25" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I25" s="14"/>
@@ -1337,7 +1337,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="12"/>
       <c r="H26" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I26" s="14"/>
@@ -1352,7 +1352,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="12"/>
       <c r="H27" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I27" s="14"/>
@@ -1367,7 +1367,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="12"/>
       <c r="H28" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I28" s="14"/>
@@ -1382,7 +1382,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="12"/>
       <c r="H29" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I29" s="14"/>
@@ -1397,7 +1397,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="12"/>
       <c r="H30" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I30" s="14"/>
@@ -1412,7 +1412,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="12"/>
       <c r="H31" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I31" s="14"/>
@@ -1427,7 +1427,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="12"/>
       <c r="H32" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I32" s="14"/>
@@ -1442,7 +1442,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="12"/>
       <c r="H33" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I33" s="14"/>
@@ -1457,7 +1457,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="12"/>
       <c r="H34" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I34" s="14"/>
@@ -1472,7 +1472,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="12"/>
       <c r="H35" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I35" s="14"/>
@@ -1487,7 +1487,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="12"/>
       <c r="H36" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I36" s="14"/>
@@ -1502,7 +1502,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="12"/>
       <c r="H37" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I37" s="14"/>
@@ -1517,7 +1517,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="12"/>
       <c r="H38" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I38" s="14"/>
@@ -1532,7 +1532,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="12"/>
       <c r="H39" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I39" s="14"/>
@@ -1547,7 +1547,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="12"/>
       <c r="H40" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I40" s="14"/>
@@ -1562,7 +1562,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="12"/>
       <c r="H41" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I41" s="14"/>
@@ -1577,7 +1577,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="12"/>
       <c r="H42" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I42" s="14"/>
@@ -1592,7 +1592,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="12"/>
       <c r="H43" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I43" s="14"/>
@@ -1607,7 +1607,7 @@
       <c r="F44" s="11"/>
       <c r="G44" s="12"/>
       <c r="H44" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I44" s="14"/>
@@ -1622,7 +1622,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="12"/>
       <c r="H45" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I45" s="14"/>
@@ -1637,7 +1637,7 @@
       <c r="F46" s="11"/>
       <c r="G46" s="12"/>
       <c r="H46" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I46" s="14"/>
@@ -1652,7 +1652,7 @@
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I47" s="14"/>
@@ -1667,7 +1667,7 @@
       <c r="F48" s="11"/>
       <c r="G48" s="12"/>
       <c r="H48" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I48" s="14"/>
@@ -1682,7 +1682,7 @@
       <c r="F49" s="11"/>
       <c r="G49" s="12"/>
       <c r="H49" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I49" s="14"/>
@@ -1697,7 +1697,7 @@
       <c r="F50" s="11"/>
       <c r="G50" s="12"/>
       <c r="H50" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I50" s="14"/>
@@ -1712,7 +1712,7 @@
       <c r="F51" s="11"/>
       <c r="G51" s="12"/>
       <c r="H51" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I51" s="14"/>
@@ -1727,7 +1727,7 @@
       <c r="F52" s="11"/>
       <c r="G52" s="12"/>
       <c r="H52" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I52" s="14"/>
@@ -1742,7 +1742,7 @@
       <c r="F53" s="11"/>
       <c r="G53" s="12"/>
       <c r="H53" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I53" s="14"/>
@@ -1757,7 +1757,7 @@
       <c r="F54" s="11"/>
       <c r="G54" s="12"/>
       <c r="H54" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I54" s="14"/>
@@ -1772,7 +1772,7 @@
       <c r="F55" s="11"/>
       <c r="G55" s="12"/>
       <c r="H55" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I55" s="14"/>
@@ -1787,7 +1787,7 @@
       <c r="F56" s="11"/>
       <c r="G56" s="12"/>
       <c r="H56" s="15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I56" s="14"/>
